--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="R22" s="2" t="inlineStr"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>A 36814-2023</t>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1815,6 +1815,63 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 47107-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OKÄNT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OKÄNT</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/Logging_OKANT/Översikt OKÄNT.xlsx
+++ b/Logging_OKANT/Översikt OKÄNT.xlsx
@@ -572,7 +572,7 @@
         <v>43735</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43780</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43845</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43864</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43872</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43971</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44005</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44098</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44178</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44224</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44501</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44707</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44729</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44844</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45040</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45092</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45154</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45154</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45196</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
